--- a/Weather_for_Penman/Irrigation_log.xlsx
+++ b/Weather_for_Penman/Irrigation_log.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DK/Documents/GitHub/SoilMoisture_analysis/Weather_for_Penman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA0216-7AEB-3F4B-A040-1667D54B68B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134890E2-1F81-E147-B153-3F0CE4F39E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="17480" windowWidth="26840" windowHeight="15940" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
+    <workbookView xWindow="2300" yWindow="4840" windowWidth="25560" windowHeight="18180" activeTab="1" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
   </bookViews>
   <sheets>
     <sheet name="irrigation_log" sheetId="1" r:id="rId1"/>
+    <sheet name="deficit_adj" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +37,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Corn(hr)</t>
-  </si>
-  <si>
-    <t>Soybean(hr)</t>
+    <t>Corn IRR (hr)</t>
+  </si>
+  <si>
+    <t>Corn FERT (hr)</t>
+  </si>
+  <si>
+    <t>Soybean IRR (hr)</t>
+  </si>
+  <si>
+    <t>Soybean FERT (hr)</t>
+  </si>
+  <si>
+    <t>Corn IRR (inch)</t>
+  </si>
+  <si>
+    <t>Soybean IRR (inch)</t>
+  </si>
+  <si>
+    <t>Corn FERT (inch)</t>
+  </si>
+  <si>
+    <t>Soybean FERT (inch)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -417,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4E0D44-5547-8E42-9336-7F1CCC28BE18}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,10 +455,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45397</v>
       </c>
@@ -444,153 +472,393 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45398</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45399</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45401</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45402</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45403</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45404</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45405</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45406</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45407</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45408</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45409</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45410</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45411</v>
       </c>
       <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45412</v>
       </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45413</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45414</v>
       </c>
       <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45415</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45416</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDD65C-8F8C-F543-BD88-99EEF0A5725C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Weather_for_Penman/Irrigation_log.xlsx
+++ b/Weather_for_Penman/Irrigation_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DK/Documents/GitHub/SoilMoisture_analysis/Weather_for_Penman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134890E2-1F81-E147-B153-3F0CE4F39E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95AB27-5448-694B-BEAC-82CE1423C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="4840" windowWidth="25560" windowHeight="18180" activeTab="1" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
   </bookViews>
@@ -54,6 +54,9 @@
     <t>Soybean FERT (hr)</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Corn IRR (inch)</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
   </si>
   <si>
     <t>Soybean FERT (inch)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDD65C-8F8C-F543-BD88-99EEF0A5725C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Weather_for_Penman/Irrigation_log.xlsx
+++ b/Weather_for_Penman/Irrigation_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DK/Documents/GitHub/SoilMoisture_analysis/Weather_for_Penman/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsyan\Documents\Github\SoilMoisture_analysis\Weather_for_Penman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95AB27-5448-694B-BEAC-82CE1423C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F06D6F-3B7A-4D59-9980-3FF1193A9949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="4840" windowWidth="25560" windowHeight="18180" activeTab="1" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="15585" activeTab="1" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
   </bookViews>
   <sheets>
     <sheet name="irrigation_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Soybean FERT (hr)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Corn IRR (inch)</t>
   </si>
   <si>
@@ -67,18 +64,33 @@
   </si>
   <si>
     <t>Soybean FERT (inch)</t>
+  </si>
+  <si>
+    <t>Corn RAIN (inch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soybean RAIN (inch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,7 +119,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,12 +454,12 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45397</v>
       </c>
@@ -481,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45398</v>
       </c>
@@ -498,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45399</v>
       </c>
@@ -515,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -532,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45401</v>
       </c>
@@ -549,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45402</v>
       </c>
@@ -566,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45403</v>
       </c>
@@ -583,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45404</v>
       </c>
@@ -600,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45405</v>
       </c>
@@ -617,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45406</v>
       </c>
@@ -634,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45407</v>
       </c>
@@ -651,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45408</v>
       </c>
@@ -668,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45409</v>
       </c>
@@ -685,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45410</v>
       </c>
@@ -702,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45411</v>
       </c>
@@ -719,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45412</v>
       </c>
@@ -736,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45413</v>
       </c>
@@ -753,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45414</v>
       </c>
@@ -770,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45415</v>
       </c>
@@ -787,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45416</v>
       </c>
@@ -805,6 +817,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -812,56 +825,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDD65C-8F8C-F543-BD88-99EEF0A5725C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="G1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Weather_for_Penman/Irrigation_log.xlsx
+++ b/Weather_for_Penman/Irrigation_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsyan\Documents\Github\SoilMoisture_analysis\Weather_for_Penman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DK/Documents/GitHub/SoilMoisture_analysis/Weather_for_Penman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F06D6F-3B7A-4D59-9980-3FF1193A9949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DE692B-80F1-DA4C-A423-50EF2A9BC3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="15585" activeTab="1" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
+    <workbookView xWindow="8360" yWindow="15760" windowWidth="31200" windowHeight="15580" xr2:uid="{AFA2ACD8-0CD5-2043-8D59-0A81AC23736D}"/>
   </bookViews>
   <sheets>
     <sheet name="irrigation_log" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -119,7 +119,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4E0D44-5547-8E42-9336-7F1CCC28BE18}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,344 +476,871 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45397</v>
+        <v>45423</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45398</v>
+        <v>45424</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45399</v>
+        <v>45425</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45400</v>
+        <v>45426</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45401</v>
+        <v>45427</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45402</v>
+        <v>45428</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45403</v>
+        <v>45429</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45404</v>
+        <v>45430</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45405</v>
+        <v>45431</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45406</v>
+        <v>45432</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45407</v>
+        <v>45433</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45408</v>
+        <v>45434</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45409</v>
+        <v>45435</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45410</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45411</v>
+        <v>45437</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45412</v>
+        <v>45438</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45439</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45414</v>
+        <v>45440</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45415</v>
+        <v>45441</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45416</v>
+        <v>45442</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -825,22 +1352,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDD65C-8F8C-F543-BD88-99EEF0A5725C}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="144" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,9 +1391,178 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>